--- a/数据整理/stocks/A股/上证主板/601933-永辉超市.xlsx
+++ b/数据整理/stocks/A股/上证主板/601933-永辉超市.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006369</t>
+          <t>501015</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>弘毅远方国企转型升级混合</t>
+          <t>财通多策略升级混合（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.70</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2793</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>99.59</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.25</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001678</t>
+          <t>512350</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>英大国企改革主题股票</t>
+          <t>兴业中证福建50ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.00</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>512270</t>
+          <t>003447</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安沪深300行业中性低波动ETF</t>
+          <t>英大睿鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>95.26</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>512350</t>
+          <t>003446</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴业中证福建50ETF</t>
+          <t>英大睿鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>98.54</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003446</t>
+          <t>006369</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>英大睿鑫灵活配置混合A</t>
+          <t>弘毅远方国企转型升级混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.87</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003447</t>
+          <t>001678</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>英大睿鑫灵活配置混合C</t>
+          <t>英大国企改革主题股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.87</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501015</t>
+          <t>512270</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>财通多策略升级混合（LOF）</t>
+          <t>华安沪深300行业中性低波动ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.25</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +832,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -762,26 +862,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003446</t>
+          <t>501015</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>英大睿鑫灵活配置混合A</t>
+          <t>财通多策略升级混合（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.53</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2655</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -790,26 +900,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003447</t>
+          <t>512350</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>英大睿鑫灵活配置混合C</t>
+          <t>兴业中证福建50ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.53</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -818,26 +938,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006369</t>
+          <t>003446</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>弘毅远方国企转型升级混合</t>
+          <t>英大睿鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.05</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -846,26 +976,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501015</t>
+          <t>003447</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>财通多策略升级混合（LOF）</t>
+          <t>英大睿鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>82.18</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9.35</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>512350</t>
+          <t>001678</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴业中证福建50ETF</t>
+          <t>英大国企改革主题股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>98.89</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001678</t>
+          <t>006369</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>英大国企改革主题股票</t>
+          <t>弘毅远方国企转型升级混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>86.51</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601933-永辉超市.xlsx
+++ b/数据整理/stocks/A股/上证主板/601933-永辉超市.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512270</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安沪深300行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601933-永辉超市.xlsx
+++ b/数据整理/stocks/A股/上证主板/601933-永辉超市.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1182,4 +1183,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601933-永辉超市.xlsx
+++ b/数据整理/stocks/A股/上证主板/601933-永辉超市.xlsx
@@ -1207,12 +1207,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601933-永辉超市.xlsx
+++ b/数据整理/stocks/A股/上证主板/601933-永辉超市.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1191,7 +1192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1202,17 +1203,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1222,14 +1243,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1238,14 +1281,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.46</v>
+          <t>014053</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平睿庆混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1254,13 +1319,287 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014054</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>太平睿庆混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601933-永辉超市.xlsx
+++ b/数据整理/stocks/A股/上证主板/601933-永辉超市.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1514,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,17 +1526,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1545,14 +1566,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.25</v>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3083</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1561,14 +1604,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2754</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1577,14 +1642,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.46</v>
+          <t>673100</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1963</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1593,13 +1680,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>673101</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014053</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>太平睿庆混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>660006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>农银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014054</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>太平睿庆混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601933-永辉超市.xlsx
+++ b/数据整理/stocks/A股/上证主板/601933-永辉超市.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>1.31</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -566,6 +583,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013184</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013185</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002135</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002136</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1077,7 +1340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1399,7 +1662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1493,7 +1756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1777,7 +2040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
